--- a/Relacao_Produtos_e_Clientes_2024.xlsx
+++ b/Relacao_Produtos_e_Clientes_2024.xlsx
@@ -628,7 +628,7 @@
     <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="19.719285714285714" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
